--- a/test_report_password_store.xlsx
+++ b/test_report_password_store.xlsx
@@ -117,13 +117,13 @@
     <t>/hash with 'shutdown' is graceful</t>
   </si>
   <si>
-    <t>POST to /hash should shutdown after in flight requests to complete before shutting down</t>
+    <t>POST to /hash should shutdown after in flight requests are completed</t>
   </si>
   <si>
     <t>/hash with 'shutdown' no request during shutdown</t>
   </si>
   <si>
-    <t>POST to /hash with shutdown should not accept any more requests</t>
+    <t>POST to /hash with shutdown should not accept any more new requests</t>
   </si>
   <si>
     <t>Decoded base 64 is not a sha512 hash</t>
@@ -424,7 +424,7 @@
     <col customWidth="1" min="1" max="1" width="40.86"/>
     <col customWidth="1" min="2" max="2" width="42.14"/>
     <col customWidth="1" min="3" max="3" width="28.86"/>
-    <col customWidth="1" min="4" max="4" width="30.0"/>
+    <col customWidth="1" min="4" max="4" width="35.86"/>
   </cols>
   <sheetData>
     <row r="1">
